--- a/Day25 (Europe map game)/Data/countries_x_y(clean).xlsx
+++ b/Day25 (Europe map game)/Data/countries_x_y(clean).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\DataScience-Training\100_days_of_code\Day16 (Europe map game)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20E4EA-5DE5-48D7-ADF9-3281862FA660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF4E7A-FB43-4A4F-8766-F6311BCB3BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>country</t>
   </si>
@@ -520,7 +520,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,10 +589,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="D5">
-        <v>-162</v>
+        <v>-178</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
